--- a/biology/Zoologie/Holoaden/Holoaden.xlsx
+++ b/biology/Zoologie/Holoaden/Holoaden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holoaden est un genre d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holoaden est un genre d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 4 espèces de ce genre sont endémiques du Brésil[1]. Elles se rencontrent dans les montagnes dans les États du Minas Gerais, de Rio de Janeiro et de São Paulo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 4 espèces de ce genre sont endémiques du Brésil. Elles se rencontrent dans les montagnes dans les États du Minas Gerais, de Rio de Janeiro et de São Paulo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (4 juillet 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (4 juillet 2014) :
 Holoaden bradei Lutz, 1958
 Holoaden luederwaldti Miranda-Ribeiro, 1920
 Holoaden pholeter Pombal, Siqueira, Dorigo, Vrcibradic &amp; Rocha, 2008
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre vient du grec holos, entier, et de aden, la glande, en référence aux pustules présentes sur les dos des espèces de ce genre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre vient du grec holos, entier, et de aden, la glande, en référence aux pustules présentes sur les dos des espèces de ce genre.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Miranda-Ribeiro, 1920 : Algumas considerações sôbre Holoaden lüderwaldti e gêneros correlatos. Revista do Museu Paulista, vol. 12, p. 317-320 (texte intégral).</t>
         </is>
